--- a/data/trans_dic/P19C08-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.005482380770807927</v>
+        <v>0.005482380770807928</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.005720706715864947</v>
@@ -697,7 +697,7 @@
         <v>0.001473127586284483</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.005281368817663883</v>
+        <v>0.005281368817663882</v>
       </c>
     </row>
     <row r="5">
@@ -708,16 +708,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.002265425918602709</v>
+        <v>0.002274684826107362</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.004915879196705935</v>
+        <v>0.004878000712076585</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0009215317475036967</v>
+        <v>0.0009191018800310786</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -727,19 +727,19 @@
       </c>
       <c r="I5" s="5" t="inlineStr"/>
       <c r="J5" s="5" t="n">
-        <v>0.00141870079445643</v>
+        <v>0.001442145029280992</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.001472934172257501</v>
+        <v>0.001463105699276723</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.002846973301647873</v>
+        <v>0.002844953535363465</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.002183780040995179</v>
+        <v>0.002194619038785618</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02119998458474466</v>
+        <v>0.01931757853676514</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04079078604056036</v>
+        <v>0.03624243541362954</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01352711040681579</v>
+        <v>0.01344420868560435</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01530809450571796</v>
+        <v>0.01503282298532465</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01888964794667766</v>
+        <v>0.01904116240259074</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01658171644608427</v>
+        <v>0.01719794590998754</v>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.01386279447952119</v>
+        <v>0.01339201064978068</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01293952260102422</v>
+        <v>0.01390764512377178</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02675649438310222</v>
+        <v>0.02333206043647917</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.009657311799480222</v>
+        <v>0.007894359873652505</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01119003779098462</v>
+        <v>0.01068735376089445</v>
       </c>
     </row>
     <row r="7">
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.005364662886821102</v>
+        <v>0.005453315876763456</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.001104368665483166</v>
+        <v>0.001117086223220863</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.004371231940479075</v>
+        <v>0.004309266746712385</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.001393271922147451</v>
+        <v>0.001376648018365173</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.001439731742045667</v>
+        <v>0.001526393457025557</v>
       </c>
     </row>
     <row r="9">
@@ -882,38 +882,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02113599470323613</v>
+        <v>0.02075083682777141</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01815531249736083</v>
+        <v>0.01610214994802901</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.01199003737201841</v>
+        <v>0.01118149863834951</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03164982166559741</v>
+        <v>0.03153824108800977</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02116692348277076</v>
+        <v>0.02123813500280548</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01789189173117497</v>
+        <v>0.01600855121948508</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01454018716608709</v>
+        <v>0.01654363768051064</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0224690267716995</v>
+        <v>0.02040645479987837</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01526539017847861</v>
+        <v>0.01321037488742513</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.008136708208486306</v>
+        <v>0.007552322112746434</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.00924204652486057</v>
+        <v>0.009206906470322058</v>
       </c>
     </row>
     <row r="10">
@@ -949,7 +949,7 @@
         <v>0.01107697224452198</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.003561989102402157</v>
+        <v>0.003561989102402158</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.003242062125463721</v>
+        <v>0.003431068176147945</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.002818012732517721</v>
+        <v>0.002631249604537722</v>
       </c>
     </row>
     <row r="12">
@@ -1011,33 +1011,33 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.02015746411734985</v>
+        <v>0.01872741585185191</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01432521429881027</v>
+        <v>0.0143146229560133</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02141881585725568</v>
+        <v>0.02166760668088599</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.02801673618948797</v>
+        <v>0.02160710602195257</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04502409126377263</v>
+        <v>0.05812474538936942</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01796718735206299</v>
+        <v>0.02128018873525793</v>
       </c>
       <c r="K12" s="5" t="inlineStr"/>
       <c r="L12" s="5" t="n">
-        <v>0.01563952183520887</v>
+        <v>0.01595821706297558</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0169744397647195</v>
+        <v>0.01672605577326773</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01640530699992455</v>
+        <v>0.01609656640694938</v>
       </c>
     </row>
     <row r="13">
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.001059613123246188</v>
+        <v>0.001066978118451656</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0008345138651682874</v>
+        <v>0.0008363893092328874</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
@@ -1111,25 +1111,25 @@
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.00229407395685064</v>
+        <v>0.002734726103996189</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.001940063749868961</v>
+        <v>0.001905059253456307</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.001298858838581952</v>
+        <v>0.00130374552478839</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.002315283213216627</v>
+        <v>0.002247639456604559</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.001924853484603084</v>
+        <v>0.001657628383527116</v>
       </c>
     </row>
     <row r="15">
@@ -1140,40 +1140,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.008838243449762835</v>
+        <v>0.008789258647898165</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.009576350179803432</v>
+        <v>0.00836266423112368</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.005863427627863039</v>
+        <v>0.005835402861064105</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01531281054928838</v>
+        <v>0.0144988611776351</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01029438531723487</v>
+        <v>0.01175213135941762</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01515808259252106</v>
+        <v>0.01539639846444257</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.008436645235815438</v>
+        <v>0.008481829279650566</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0138347423072175</v>
+        <v>0.01406519085012008</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.007563062022868872</v>
+        <v>0.007966341930450269</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.009056899420175365</v>
+        <v>0.00906415119552826</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.004917687867821091</v>
+        <v>0.004358819115232406</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01051461917939964</v>
+        <v>0.009354059232722709</v>
       </c>
     </row>
     <row r="16">
@@ -1197,7 +1197,7 @@
         <v>0.002146296563570895</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.008550549960666289</v>
+        <v>0.008550549960666291</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.008154331195341513</v>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.004712723730957036</v>
+        <v>0.004742007183469421</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
@@ -1242,10 +1242,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.002013222997607423</v>
+        <v>0.002049335662900676</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.001423997825573867</v>
+        <v>0.001428602041375151</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
@@ -1254,16 +1254,16 @@
         <v>0</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.00132617550317626</v>
+        <v>0.00132723582547744</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.003605586051761247</v>
+        <v>0.003627992842863194</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0009222020128878534</v>
+        <v>0.0009267968799604519</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.00106742664369007</v>
+        <v>0.00103848208098485</v>
       </c>
     </row>
     <row r="18">
@@ -1275,37 +1275,37 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.02671687812497306</v>
+        <v>0.02671177583341075</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01291519500788016</v>
+        <v>0.0116971674018941</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03314313307788544</v>
+        <v>0.03178996718291058</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02079858472393729</v>
+        <v>0.02304215250102308</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.0184612674007199</v>
+        <v>0.01871530683840196</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01298838985218269</v>
+        <v>0.01226575735888365</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.006133773358595491</v>
+        <v>0.006193863376390212</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01534472323946726</v>
+        <v>0.01517271262090022</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01630387055672442</v>
+        <v>0.01564304439021091</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0085612853836457</v>
+        <v>0.009077231888760352</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01333779156590141</v>
+        <v>0.01287072246414376</v>
       </c>
     </row>
     <row r="19">
@@ -1372,24 +1372,24 @@
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>0.0009604341742524013</v>
+        <v>0.0009553380532082837</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.002529129084442572</v>
+        <v>0.002230049109866817</v>
       </c>
       <c r="I20" s="5" t="inlineStr"/>
       <c r="J20" s="5" t="n">
-        <v>0.002243820401608183</v>
+        <v>0.002233666343854446</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0009907386477259104</v>
+        <v>0.0009956170566218791</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.00264617468739319</v>
+        <v>0.002653028017846888</v>
       </c>
       <c r="M20" s="5" t="inlineStr"/>
       <c r="N20" s="5" t="n">
-        <v>0.001725814575700929</v>
+        <v>0.00180194577956537</v>
       </c>
     </row>
     <row r="21">
@@ -1400,32 +1400,32 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0185267509154384</v>
+        <v>0.01962483976051037</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02510048195198445</v>
+        <v>0.02025799121871668</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.01063665455518588</v>
+        <v>0.00935229411793868</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.01544306968472758</v>
+        <v>0.0133119178266741</v>
       </c>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="n">
-        <v>0.01259917710553245</v>
+        <v>0.0125561798987347</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.008702899642670478</v>
+        <v>0.008890661309150675</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.0131182253863723</v>
+        <v>0.01317313572395227</v>
       </c>
       <c r="M21" s="5" t="inlineStr"/>
       <c r="N21" s="5" t="n">
-        <v>0.01012853908677369</v>
+        <v>0.01004553625538867</v>
       </c>
     </row>
     <row r="22">
@@ -1461,7 +1461,7 @@
         <v>0.002075328359395607</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.004549993516598257</v>
+        <v>0.004549993516598256</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.004467120282706089</v>
@@ -1473,7 +1473,7 @@
         <v>0.001823253049271754</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.004784136788295684</v>
+        <v>0.004784136788295685</v>
       </c>
     </row>
     <row r="23">
@@ -1484,40 +1484,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.001752052391217086</v>
+        <v>0.001863913426784882</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.003323795713265761</v>
+        <v>0.003619496300702311</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0003876017672729282</v>
+        <v>0.0003851081137273468</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.002491134084933076</v>
+        <v>0.002695856900219822</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.002896932575871187</v>
+        <v>0.003132365729265092</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.003651902101498041</v>
+        <v>0.003453033653964992</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.0007434784001077805</v>
+        <v>0.0008065502858767774</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.00276044916281961</v>
+        <v>0.002786597451469885</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.002956136819550276</v>
+        <v>0.002812078612522857</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.00406100614765192</v>
+        <v>0.004168551654230377</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.0007906338342016468</v>
+        <v>0.0007880477521579705</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.003192837580145853</v>
+        <v>0.003356098775852719</v>
       </c>
     </row>
     <row r="24">
@@ -1528,40 +1528,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.006451154341738313</v>
+        <v>0.006411324116447937</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0104912205321012</v>
+        <v>0.01025597424242283</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.004102233834114976</v>
+        <v>0.003691738465449429</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.00896948670409849</v>
+        <v>0.009403325072947923</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.009029903381336409</v>
+        <v>0.009043152800106221</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.009272632455219934</v>
+        <v>0.009281076842663952</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.004571425472953849</v>
+        <v>0.004375865290843724</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.006875482518389653</v>
+        <v>0.007059159122549087</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.006456287563935383</v>
+        <v>0.006658748635252159</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.00832408029778652</v>
+        <v>0.008517543982538883</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.00332419547587244</v>
+        <v>0.003404619618475297</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.007079986174537809</v>
+        <v>0.007056537959280882</v>
       </c>
     </row>
     <row r="25">
@@ -1834,16 +1834,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1943</v>
+        <v>1928</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -1853,19 +1853,19 @@
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2233</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="7">
@@ -1876,38 +1876,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8190</v>
+        <v>7462</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16126</v>
+        <v>14328</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5243</v>
+        <v>5211</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8286</v>
+        <v>8137</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5068</v>
+        <v>5108</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>4874</v>
+        <v>5055</v>
       </c>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>6673</v>
+        <v>6446</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>8470</v>
+        <v>9104</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>18443</v>
+        <v>16083</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>6793</v>
+        <v>5553</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>11443</v>
+        <v>10929</v>
       </c>
     </row>
     <row r="8">
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1789</v>
+        <v>1819</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
@@ -2029,19 +2029,19 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2770</v>
+        <v>2731</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1292</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="11">
@@ -2052,38 +2052,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6345</v>
+        <v>6230</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6967</v>
+        <v>6179</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>5747</v>
+        <v>5360</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>10557</v>
+        <v>10520</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>6636</v>
+        <v>6658</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>5968</v>
+        <v>5340</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>6077</v>
+        <v>6914</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>14240</v>
+        <v>12933</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>10643</v>
+        <v>9211</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>5291</v>
+        <v>4911</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>8292</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="12">
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1504</v>
+        <v>1592</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1828</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="15">
@@ -2225,33 +2225,33 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>10794</v>
+        <v>10028</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5805</v>
+        <v>5800</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9935</v>
+        <v>10051</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>6743</v>
+        <v>5200</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6277</v>
+        <v>8104</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3321</v>
+        <v>3933</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
       <c r="L15" s="6" t="n">
-        <v>12139</v>
+        <v>12386</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>9245</v>
+        <v>9110</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>10642</v>
+        <v>10442</v>
       </c>
     </row>
     <row r="16">
@@ -2354,10 +2354,10 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
@@ -2369,25 +2369,25 @@
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1603</v>
+        <v>1911</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1623</v>
+        <v>1594</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1906</v>
+        <v>1914</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>3870</v>
+        <v>3757</v>
       </c>
       <c r="M18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>3720</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="19">
@@ -2398,40 +2398,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7702</v>
+        <v>7659</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>9315</v>
+        <v>8135</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5157</v>
+        <v>5132</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>16778</v>
+        <v>15886</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6138</v>
+        <v>7007</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>10594</v>
+        <v>10761</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>5771</v>
+        <v>5802</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>11577</v>
+        <v>11770</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>11100</v>
+        <v>11692</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>15140</v>
+        <v>15152</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>7689</v>
+        <v>6815</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>20319</v>
+        <v>18077</v>
       </c>
     </row>
     <row r="20">
@@ -2535,7 +2535,7 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>1901</v>
+        <v>1913</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
@@ -2544,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>918</v>
+        <v>935</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
@@ -2559,13 +2559,13 @@
         <v>934</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3862</v>
+        <v>3886</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1391</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="23">
@@ -2577,37 +2577,37 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>10775</v>
+        <v>10773</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>5491</v>
+        <v>4973</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>16898</v>
+        <v>16208</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>9486</v>
+        <v>10509</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>12330</v>
+        <v>12500</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>7241</v>
+        <v>6838</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>4867</v>
+        <v>4915</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>10803</v>
+        <v>10682</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>17465</v>
+        <v>16757</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>8413</v>
+        <v>8920</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>17384</v>
+        <v>16775</v>
       </c>
     </row>
     <row r="24">
@@ -2718,24 +2718,24 @@
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2338</v>
+        <v>2061</v>
       </c>
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="n">
-        <v>1837</v>
+        <v>1829</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1147</v>
+        <v>1153</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>3031</v>
+        <v>3039</v>
       </c>
       <c r="M26" s="6" t="inlineStr"/>
       <c r="N26" s="6" t="n">
-        <v>1803</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="27">
@@ -2746,32 +2746,32 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3932</v>
+        <v>4165</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5552</v>
+        <v>4481</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>10058</v>
+        <v>8844</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>14275</v>
+        <v>12305</v>
       </c>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>10315</v>
+        <v>10280</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>10077</v>
+        <v>10294</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>15028</v>
+        <v>15091</v>
       </c>
       <c r="M27" s="6" t="inlineStr"/>
       <c r="N27" s="6" t="n">
-        <v>10580</v>
+        <v>10493</v>
       </c>
     </row>
     <row r="28">
@@ -2874,40 +2874,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4290</v>
+        <v>4564</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>9678</v>
+        <v>10539</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>8260</v>
+        <v>8939</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>7937</v>
+        <v>8582</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>11465</v>
+        <v>10840</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2123</v>
+        <v>2303</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>9753</v>
+        <v>9845</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>15337</v>
+        <v>14590</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>24574</v>
+        <v>25224</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>4357</v>
+        <v>4343</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>21867</v>
+        <v>22986</v>
       </c>
     </row>
     <row r="31">
@@ -2918,40 +2918,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>15795</v>
+        <v>15697</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>30548</v>
+        <v>29863</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>10894</v>
+        <v>9804</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>29741</v>
+        <v>31179</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>24741</v>
+        <v>24777</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>29110</v>
+        <v>29136</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>13054</v>
+        <v>12496</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>24292</v>
+        <v>24941</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>33497</v>
+        <v>34547</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>50370</v>
+        <v>51541</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>18321</v>
+        <v>18764</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>48490</v>
+        <v>48330</v>
       </c>
     </row>
     <row r="32">
